--- a/Solutions.xlsx
+++ b/Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iDimk\Education\LeetCode-75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B8C359-AC46-4F93-B6CD-A0BD4426C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FCE91-43BE-48B4-975B-09D2725B68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2670" windowWidth="17140" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Longest Subarray of 1's After Deleting One Element</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Find the Difference of Two Arrays</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Создаем две коллекции уникальных элементов для двух входящих массивов. Возвращаем разности этих коллекций.</t>
+  </si>
+  <si>
+    <t>Hash Map / Set</t>
   </si>
 </sst>
 </file>
@@ -60,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +82,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -95,6 +113,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -378,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,9 +432,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>2215</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element/" xr:uid="{985B7B0A-49DC-4AE4-9DB4-50B03E845562}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://leetcode.com/problems/find-the-difference-of-two-arrays/" xr:uid="{95D7FCA8-AA70-44EA-8D0C-0572ABE42C0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Solutions.xlsx
+++ b/Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iDimk\Education\LeetCode-75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FCE91-43BE-48B4-975B-09D2725B68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897CFB6F-53C6-47FD-AEA3-F0EACCA5DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2670" windowWidth="17140" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Longest Subarray of 1's After Deleting One Element</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Hash Map / Set</t>
+  </si>
+  <si>
+    <t>Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>Создаем карту(ключ: интовое число; значение: количество чисел). Проходим по массиву один раз, заполняя карту. Создаем вторую карту, которая будет хранить уникальность наших значений(ключ: количество чисел; значение: true или false, которые означают, встречалось ли такое количество ранее). Заполняем карту таким образом: Проходим по первой карте, принимая только значение. Используя значение обращаемся ко второй карте. Если такой ключ уже есть, то вся функция должна вернуть False. Если все ключи прошли проверку - True</t>
   </si>
 </sst>
 </file>
@@ -105,20 +111,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -401,58 +418,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="43.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
+      <c r="A1" s="4">
         <v>1493</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>2215</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1207</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element/" xr:uid="{985B7B0A-49DC-4AE4-9DB4-50B03E845562}"/>
     <hyperlink ref="B2" r:id="rId2" display="https://leetcode.com/problems/find-the-difference-of-two-arrays/" xr:uid="{95D7FCA8-AA70-44EA-8D0C-0572ABE42C0F}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://leetcode.com/problems/unique-number-of-occurrences/" xr:uid="{CD9AA2A6-BA90-49BA-B8DF-0408066651E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Solutions.xlsx
+++ b/Solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897CFB6F-53C6-47FD-AEA3-F0EACCA5DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78964C0-51B1-4F22-B86C-F3D3145C44D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2670" windowWidth="17140" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3450" windowWidth="17140" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Longest Subarray of 1's After Deleting One Element</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Создаем карту(ключ: интовое число; значение: количество чисел). Проходим по массиву один раз, заполняя карту. Создаем вторую карту, которая будет хранить уникальность наших значений(ключ: количество чисел; значение: true или false, которые означают, встречалось ли такое количество ранее). Заполняем карту таким образом: Проходим по первой карте, принимая только значение. Используя значение обращаемся ко второй карте. Если такой ключ уже есть, то вся функция должна вернуть False. Если все ключи прошли проверку - True</t>
+  </si>
+  <si>
+    <t>Removing Stars From a String</t>
+  </si>
+  <si>
+    <t>String / Stack / Simulation</t>
+  </si>
+  <si>
+    <t>Создаем отдельный массив. Проходимся по данной строчке. Если встречаем *, то удаляем последний элемент массива. В других случаях добавляем в конец массива текущий символ</t>
   </si>
 </sst>
 </file>
@@ -111,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -137,6 +146,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -418,17 +429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="8"/>
     <col min="2" max="2" width="43.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -484,11 +495,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2930</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element/" xr:uid="{985B7B0A-49DC-4AE4-9DB4-50B03E845562}"/>
     <hyperlink ref="B2" r:id="rId2" display="https://leetcode.com/problems/find-the-difference-of-two-arrays/" xr:uid="{95D7FCA8-AA70-44EA-8D0C-0572ABE42C0F}"/>
     <hyperlink ref="B3" r:id="rId3" display="https://leetcode.com/problems/unique-number-of-occurrences/" xr:uid="{CD9AA2A6-BA90-49BA-B8DF-0408066651E0}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://leetcode.com/problems/removing-stars-from-a-string/" xr:uid="{47D75EE2-F628-4378-934D-29BE92F23552}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
